--- a/SimpleTestPlan (3).xlsx
+++ b/SimpleTestPlan (3).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lakshay\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lakshay\Desktop\Project8040\finalProject8040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7BC1C6-1EFF-4BF7-AA78-EC02DFC47205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDCC27D-1508-453B-9422-0BEC47C600D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{914AB93E-6ED1-40D2-905F-74BA6B2F32F5}"/>
+    <workbookView xWindow="1884" yWindow="2760" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="7" xr2:uid="{914AB93E-6ED1-40D2-905F-74BA6B2F32F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>AAAA</t>
-  </si>
-  <si>
-    <t>BBBB</t>
-  </si>
-  <si>
     <t>Tester1</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>SW</t>
   </si>
   <si>
-    <t>CCCC</t>
-  </si>
-  <si>
     <t>Total Functional</t>
   </si>
   <si>
@@ -331,6 +322,39 @@
   </si>
   <si>
     <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>Add Customer</t>
+  </si>
+  <si>
+    <t>View Customer</t>
+  </si>
+  <si>
+    <t>Search Customer</t>
+  </si>
+  <si>
+    <t>Website language framework</t>
+  </si>
+  <si>
+    <t>Database creation</t>
+  </si>
+  <si>
+    <t>Creating test environment</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>User can able to add customers</t>
+  </si>
+  <si>
+    <t>User can view customers</t>
+  </si>
+  <si>
+    <t>Users can search the details</t>
   </si>
 </sst>
 </file>
@@ -813,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDB44BE-D3E5-441B-B390-69ABE653839D}">
   <dimension ref="D10:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="E6" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,24 +857,24 @@
     </row>
     <row r="11" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>15</v>
@@ -860,31 +884,31 @@
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
@@ -893,15 +917,15 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -910,50 +934,50 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -964,7 +988,7 @@
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
@@ -975,7 +999,7 @@
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
@@ -991,7 +1015,7 @@
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E12:E22)</f>
@@ -1001,7 +1025,7 @@
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1">
         <f>E24*0.1</f>
@@ -1026,7 +1050,7 @@
     </row>
     <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D29" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E29" s="1">
         <f>SUM(E24:E25)</f>
@@ -1044,13 +1068,13 @@
   <dimension ref="A6:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.109375" customWidth="1"/>
   </cols>
@@ -1064,13 +1088,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1085,13 +1109,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1100,13 +1124,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1115,13 +1139,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1">
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1141,7 +1165,7 @@
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -1174,20 +1198,20 @@
   <sheetData>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -1195,10 +1219,10 @@
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -1207,10 +1231,10 @@
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1">
         <f>SUM(C7:C8)</f>
@@ -1227,7 +1251,7 @@
   <dimension ref="B5:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,19 +1266,19 @@
     <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -1264,36 +1288,36 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1330,7 @@
   <dimension ref="B5:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,55 +1344,55 @@
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1405,7 @@
   <dimension ref="C7:E13"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,33 +1418,39 @@
     <row r="7" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1430,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4287823A-12A5-44D6-8609-D55DAE5D4DAF}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,13 +1471,93 @@
     <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="8"/>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1459,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED4DA27-A082-4831-9F98-A28C8D1840CD}">
   <dimension ref="G9:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,27 +1583,27 @@
   <sheetData>
     <row r="9" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G9" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="K9" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G11" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I11" s="12">
         <v>0.5</v>
@@ -1502,7 +1612,7 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -1510,10 +1620,10 @@
     </row>
     <row r="12" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G12" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I12" s="11">
         <v>0.5</v>
@@ -1522,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -1531,7 +1641,7 @@
     <row r="13" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I13" s="11">
         <v>0.5</v>
@@ -1547,7 +1657,7 @@
     <row r="14" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I14" s="11">
         <v>0.5</v>
@@ -1563,7 +1673,7 @@
     <row r="15" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="11">
         <v>0.5</v>
@@ -1579,7 +1689,7 @@
     <row r="16" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I16" s="11">
         <v>0.5</v>
@@ -1608,13 +1718,13 @@
     </row>
     <row r="22" spans="7:14" x14ac:dyDescent="0.3">
       <c r="H22" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="7:14" x14ac:dyDescent="0.3">
       <c r="H23" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I23" s="12"/>
     </row>

--- a/SimpleTestPlan (3).xlsx
+++ b/SimpleTestPlan (3).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lakshay\Desktop\Project8040\finalProject8040\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lakshay\Desktop\Project8040\f\finalProject8040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDCC27D-1508-453B-9422-0BEC47C600D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EC68A3-7BBF-41D5-B967-86E6E90A328F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="2760" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="7" xr2:uid="{914AB93E-6ED1-40D2-905F-74BA6B2F32F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{914AB93E-6ED1-40D2-905F-74BA6B2F32F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>HW</t>
-  </si>
-  <si>
     <t>SW</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>Yasmin Bitar – 8687239</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>Lakshay Arora</t>
   </si>
   <si>
@@ -228,12 +222,6 @@
     <t>AWS server</t>
   </si>
   <si>
-    <t>Automation testing</t>
-  </si>
-  <si>
-    <t>For deployment and manual tests</t>
-  </si>
-  <si>
     <t>Lakshay Arora- 8680952</t>
   </si>
   <si>
@@ -294,15 +282,9 @@
     <t xml:space="preserve">Jacquilene </t>
   </si>
   <si>
-    <t xml:space="preserve">Neha, Lakshay </t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
-    <t>5 to 10</t>
-  </si>
-  <si>
     <t>visual studio performance profiler, chrome inspection, node. Js framewrok, mysql,and jmeter (optional)</t>
   </si>
   <si>
@@ -324,15 +306,6 @@
     <t>Automation Testing</t>
   </si>
   <si>
-    <t>Add Customer</t>
-  </si>
-  <si>
-    <t>View Customer</t>
-  </si>
-  <si>
-    <t>Search Customer</t>
-  </si>
-  <si>
     <t>Website language framework</t>
   </si>
   <si>
@@ -348,20 +321,68 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>User can able to add customers</t>
-  </si>
-  <si>
-    <t>User can view customers</t>
-  </si>
-  <si>
-    <t>Users can search the details</t>
+    <t>Risk4</t>
+  </si>
+  <si>
+    <t>Whole team got stuck because test server admin was at different time zone</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>More planning was required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk5 </t>
+  </si>
+  <si>
+    <t>Lack of technical knowledge while doing testing</t>
+  </si>
+  <si>
+    <t>Did some testing</t>
+  </si>
+  <si>
+    <t>Mozilla firefox</t>
+  </si>
+  <si>
+    <t>For all the types of testing(mannual, automation etc.)</t>
+  </si>
+  <si>
+    <t>Automation testing, Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neha, Lakshay, Jacquilene </t>
+  </si>
+  <si>
+    <t>Mozilla Firefox for automation</t>
+  </si>
+  <si>
+    <t>Add Car</t>
+  </si>
+  <si>
+    <t>View Car</t>
+  </si>
+  <si>
+    <t>Search Car</t>
+  </si>
+  <si>
+    <t>User can add a new car</t>
+  </si>
+  <si>
+    <t>User can able to view Car details after clicking on link button</t>
+  </si>
+  <si>
+    <t>New cars should appear in the list of view section</t>
+  </si>
+  <si>
+    <t>Customer can search the car if the car exist in view section</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +399,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -476,12 +505,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -516,6 +542,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -837,14 +873,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDB44BE-D3E5-441B-B390-69ABE653839D}">
   <dimension ref="D10:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="19" customWidth="1"/>
     <col min="6" max="6" width="33.77734375" customWidth="1"/>
     <col min="7" max="7" width="78.5546875" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
@@ -852,32 +888,32 @@
   <sheetData>
     <row r="10" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1">
-        <v>15</v>
+      <c r="E12" s="17">
+        <v>2</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -886,140 +922,139 @@
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1">
-        <v>10</v>
+      <c r="E13" s="17">
+        <v>2</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1">
-        <v>10</v>
+      <c r="E15" s="17">
+        <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="1">
-        <v>5</v>
+      <c r="E16" s="17">
+        <v>2</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>86</v>
+      <c r="E17" s="17">
+        <v>3</v>
       </c>
       <c r="F17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="1">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>92</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="1">
-        <v>5</v>
+      <c r="E20" s="17">
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="1">
-        <v>4</v>
+      <c r="E21" s="17">
+        <v>2</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="1">
+        <v>45</v>
+      </c>
+      <c r="E22" s="17">
         <v>10</v>
       </c>
       <c r="F22" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1">
+        <v>40</v>
+      </c>
+      <c r="E24" s="17">
         <f>SUM(E12:E22)</f>
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1027,74 +1062,78 @@
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="17">
         <f>E24*0.1</f>
-        <v>6.4</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>2.7</v>
+      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="17">
         <f>SUM(E24:E25)</f>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>29.7</v>
+      </c>
+      <c r="F29" s="16">
+        <f>SUM(F15:F22)</f>
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B819C-EADB-4E85-BCC9-D9DDC64A4341}">
-  <dimension ref="A6:E14"/>
+  <dimension ref="A6:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E18" activeCellId="1" sqref="D19 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>43</v>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1109,71 +1148,107 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="1">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="16">
+        <f>SUM(C9:C13)</f>
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="16">
+        <f>SUM(E9:E13)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1">
-        <f>SUM(C9:C11)</f>
-        <v>35</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1186,7 +1261,7 @@
   <dimension ref="A5:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,43 +1277,43 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="1">
         <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1">
         <f>SUM(C7:C8)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1251,7 +1326,7 @@
   <dimension ref="B5:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,26 +1334,27 @@
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="51.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>82</v>
+      <c r="E6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -1288,36 +1364,36 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1327,30 +1403,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4DD733-7B0A-4F69-BAD9-12B54F0CAB14}">
-  <dimension ref="B5:E9"/>
+  <dimension ref="B5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="43.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="56.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -1364,7 +1440,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -1378,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -1386,13 +1462,41 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1405,7 +1509,7 @@
   <dimension ref="C7:E13"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,20 +1521,26 @@
   <sheetData>
     <row r="7" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
@@ -1441,16 +1551,22 @@
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="16" t="s">
-        <v>93</v>
+      <c r="C13" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1579,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,21 +1589,21 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1498,7 +1614,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1509,7 +1625,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1520,7 +1636,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1531,7 +1647,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1542,7 +1658,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1569,7 +1685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED4DA27-A082-4831-9F98-A28C8D1840CD}">
   <dimension ref="G9:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -1582,151 +1698,151 @@
   </cols>
   <sheetData>
     <row r="9" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10">
+        <v>3</v>
+      </c>
+      <c r="J17" s="10">
+        <v>5</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="H22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="H23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G13" s="11"/>
-      <c r="H13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G14" s="11"/>
-      <c r="H14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J16" s="11">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11">
-        <v>3</v>
-      </c>
-      <c r="J17" s="11">
-        <v>5</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="H22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="H23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
